--- a/bin/data/best-sets_TFT.xlsx
+++ b/bin/data/best-sets_TFT.xlsx
@@ -5111,10 +5111,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F27" sqref="F27"/>
-      <selection pane="bottomLeft" activeCell="AH12" sqref="AH12"/>
+      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7401,11 +7401,11 @@
       </c>
       <c r="F14" s="13" t="str">
         <f>CONCATENATE("""",VLOOKUP($H14,ITEMS!$A$2:$E$57,5,0)," / ",VLOOKUP($I14,ITEMS!$A$2:$E$57,5,0)," / ",VLOOKUP($J14,ITEMS!$A$2:$E$57,5,0),"""")</f>
-        <v>"Life Steal / Critical Damage / Critical Chance / Attack Speed / Buffer (Double Range)"</v>
+        <v>"Life Steal / Critical Damage / Critical Chance / Attack Speed"</v>
       </c>
       <c r="G14" s="13" t="str">
         <f>CONCATENATE("""",VLOOKUP($H14,ITEMS!$A$2:$F$57,6,0)," / ",VLOOKUP($I14,ITEMS!$A$2:$F$57,6,0)," / ",VLOOKUP($J14,ITEMS!$A$2:$F$57,6,0),"""")</f>
-        <v>"Roubo de Vida / Dano Crítico / Chance de Crítico / Velocidade de Ataque / Buffer (Dobra Alcance)"</v>
+        <v>"Roubo de Vida / Dano Crítico / Chance de Crítico / Velocidade de Ataque"</v>
       </c>
       <c r="H14" s="25" t="s">
         <v>15</v>
@@ -7414,7 +7414,7 @@
         <v>10</v>
       </c>
       <c r="J14" s="25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K14" s="13" t="str">
         <f>CONCATENATE("""",VLOOKUP($M14,ITEMS!$A$2:$E$57,5,0)," / ",VLOOKUP($N14,ITEMS!$A$2:$E$57,5,0)," / ",VLOOKUP($O14,ITEMS!$A$2:$E$57,5,0),"""")</f>
@@ -7460,11 +7460,11 @@
       </c>
       <c r="W14" s="27">
         <f>VLOOKUP(J14,ITEMS!$A$2:$C$57,3,0)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X14" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>[16,19,22]</v>
+        <v>[16,19,23]</v>
       </c>
       <c r="Y14" s="27">
         <f>VLOOKUP(M14,ITEMS!$A$2:$C$57,3,0)</f>
@@ -7502,8 +7502,8 @@
         <f t="shared" si="3"/>
         <v>"bestSets": [
         {
-          "name": "Life Steal / Critical Damage / Critical Chance / Attack Speed / Buffer (Double Range)",
-          "items": [16,19,22]
+          "name": "Life Steal / Critical Damage / Critical Chance / Attack Speed",
+          "items": [16,19,23]
         },
         {
           "name": "Attack Speed / Attack Speed / Buffer (Double Range) / Life Steal",
@@ -7519,8 +7519,8 @@
         <f t="shared" si="4"/>
         <v>"bestSets": [
         {
-          "name": "Life Steal / Critical Damage / Critical Chance / Attack Speed / Buffer (Double Range)",
-          "items": [16,19,22]
+          "name": "Life Steal / Critical Damage / Critical Chance / Attack Speed",
+          "items": [16,19,23]
         },
         {
           "name": "Attack Speed / Attack Speed / Buffer (Double Range) / Life Steal",
@@ -7536,8 +7536,8 @@
         <f t="shared" si="5"/>
         <v>"bestSets": [
         {
-          "name": "Roubo de Vida / Dano Crítico / Chance de Crítico / Velocidade de Ataque / Buffer (Dobra Alcance)",
-          "items": [16,19,22]
+          "name": "Roubo de Vida / Dano Crítico / Chance de Crítico / Velocidade de Ataque",
+          "items": [16,19,23]
         },
         {
           "name": "Velocidade de Ataque / Velocidade de Ataque / Buffer (Dobra Alcance) / Roubo de Vida",
@@ -7553,8 +7553,8 @@
         <f t="shared" si="6"/>
         <v>"bestSets": [
         {
-          "name": "Roubo de Vida / Dano Crítico / Chance de Crítico / Velocidade de Ataque / Buffer (Dobra Alcance)",
-          "items": [16,19,22]
+          "name": "Roubo de Vida / Dano Crítico / Chance de Crítico / Velocidade de Ataque",
+          "items": [16,19,23]
         },
         {
           "name": "Velocidade de Ataque / Velocidade de Ataque / Buffer (Dobra Alcance) / Roubo de Vida",
@@ -13056,7 +13056,7 @@
       <c r="AK45" s="3"/>
       <c r="AL45" s="5"/>
     </row>
-    <row r="46" spans="1:38" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38" s="2" customFormat="1" ht="225" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46"/>

--- a/bin/data/best-sets_TFT.xlsx
+++ b/bin/data/best-sets_TFT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Dropbox\TFT\Builds\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryuok\Documents\GitHub\arenatactics\bin\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="351">
   <si>
     <t>ID</t>
   </si>
@@ -1100,6 +1100,21 @@
   </si>
   <si>
     <t>Iceborn Gauntlet</t>
+  </si>
+  <si>
+    <t>giant slayer</t>
+  </si>
+  <si>
+    <t>hush</t>
+  </si>
+  <si>
+    <t>redemption</t>
+  </si>
+  <si>
+    <t>thornmail</t>
+  </si>
+  <si>
+    <t>Twisted Fate</t>
   </si>
 </sst>
 </file>
@@ -5111,10 +5126,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F27" sqref="F27"/>
-      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomLeft" activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7392,7 +7407,7 @@
       <c r="AK13" s="3"/>
       <c r="AL13" s="5"/>
     </row>
-    <row r="14" spans="1:38" s="2" customFormat="1" ht="255" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" s="2" customFormat="1" ht="240" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14"/>
@@ -8994,28 +9009,28 @@
       </c>
       <c r="F23" s="13" t="str">
         <f>CONCATENATE("""",VLOOKUP($H23,ITEMS!$A$2:$E$57,5,0)," / ",VLOOKUP($I23,ITEMS!$A$2:$E$57,5,0)," / ",VLOOKUP($J23,ITEMS!$A$2:$E$57,5,0),"""")</f>
-        <v>"Mirror Attack / Critical Damage / Critical Chance / Debuffer (Prevent Mana)"</v>
+        <v>"Mirror Attack / True Damage (Max Health) / Debuffer (Prevent Mana)"</v>
       </c>
       <c r="G23" s="13" t="str">
         <f>CONCATENATE("""",VLOOKUP($H23,ITEMS!$A$2:$F$57,6,0)," / ",VLOOKUP($I23,ITEMS!$A$2:$F$57,6,0)," / ",VLOOKUP($J23,ITEMS!$A$2:$F$57,6,0),"""")</f>
-        <v>"Ataque Espelhado / Dano Crítico / Chance de Crítico / Debuffer (Impede de Ganhar mana)"</v>
+        <v>"Ataque Espelhado / Dano Verdadeiro (Vida Máxima) / Debuffer (Impede de Ganhar mana)"</v>
       </c>
       <c r="H23" s="25" t="s">
         <v>42</v>
       </c>
       <c r="I23" s="25" t="s">
-        <v>10</v>
+        <v>346</v>
       </c>
       <c r="J23" s="25" t="s">
         <v>33</v>
       </c>
       <c r="K23" s="13" t="str">
         <f>CONCATENATE("""",VLOOKUP($M23,ITEMS!$A$2:$E$57,5,0)," / ",VLOOKUP($N23,ITEMS!$A$2:$E$57,5,0)," / ",VLOOKUP($O23,ITEMS!$A$2:$E$57,5,0),"""")</f>
-        <v>"Attack Speed / Life Steal / Mirror Attack"</v>
+        <v>"Attack Speed / Life Steal / True Damage (Max Health)"</v>
       </c>
       <c r="L23" s="13" t="str">
         <f>CONCATENATE("""",VLOOKUP($M23,ITEMS!$A$2:$F$57,6,0)," / ",VLOOKUP($N23,ITEMS!$A$2:$F$57,6,0)," / ",VLOOKUP($O23,ITEMS!$A$2:$F$57,6,0),"""")</f>
-        <v>"Velocidade de Ataque / Roubo de Vida / Ataque Espelhado"</v>
+        <v>"Velocidade de Ataque / Roubo de Vida / Dano Verdadeiro (Vida Máxima)"</v>
       </c>
       <c r="M23" s="25" t="s">
         <v>19</v>
@@ -9024,15 +9039,15 @@
         <v>12</v>
       </c>
       <c r="O23" s="25" t="s">
-        <v>42</v>
+        <v>346</v>
       </c>
       <c r="P23" s="13" t="str">
         <f>CONCATENATE("""",VLOOKUP($R23,ITEMS!$A$2:$E$57,5,0)," / ",VLOOKUP($S23,ITEMS!$A$2:$E$57,5,0)," / ",VLOOKUP($T23,ITEMS!$A$2:$E$57,5,0),"""")</f>
-        <v>"Burn Damage / Debuffer (Prevent Heal) / Debuffer (Prevent Mana) / Attack Speed"</v>
+        <v>"Burn Damage / Debuffer (Prevent Heal) / Debuffer (Prevent Mana) / Mirror Attack"</v>
       </c>
       <c r="Q23" s="13" t="str">
         <f>CONCATENATE("""",VLOOKUP($R23,ITEMS!$A$2:$F$57,6,0)," / ",VLOOKUP($S23,ITEMS!$A$2:$F$57,6,0)," / ",VLOOKUP($T23,ITEMS!$A$2:$F$57,6,0),"""")</f>
-        <v>"Dano de Queimadura / Debuffer (Previne Cura) / Debuffer (Impede de Ganhar mana) / Velocidade de Ataque"</v>
+        <v>"Dano de Queimadura / Debuffer (Previne Cura) / Debuffer (Impede de Ganhar mana) / Ataque Espelhado"</v>
       </c>
       <c r="R23" s="25" t="s">
         <v>38</v>
@@ -9041,7 +9056,7 @@
         <v>33</v>
       </c>
       <c r="T23" s="25" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="U23" s="27">
         <f>VLOOKUP(H23,ITEMS!$A$2:$C$57,3,0)</f>
@@ -9049,7 +9064,7 @@
       </c>
       <c r="V23" s="27">
         <f>VLOOKUP(I23,ITEMS!$A$2:$C$57,3,0)</f>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="W23" s="27">
         <f>VLOOKUP(J23,ITEMS!$A$2:$C$57,3,0)</f>
@@ -9057,7 +9072,7 @@
       </c>
       <c r="X23" s="27" t="str">
         <f t="shared" ref="X23" si="13">CONCATENATE("[",U23,",",V23,",",W23,"]")</f>
-        <v>[68,19,46]</v>
+        <v>[68,12,46]</v>
       </c>
       <c r="Y23" s="27">
         <f>VLOOKUP(M23,ITEMS!$A$2:$C$57,3,0)</f>
@@ -9069,11 +9084,11 @@
       </c>
       <c r="AA23" s="27">
         <f>VLOOKUP(O23,ITEMS!$A$2:$C$57,3,0)</f>
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="AB23" s="27" t="str">
         <f t="shared" ref="AB23" si="14">CONCATENATE("[",Y23,",",Z23,",",AA23,"]")</f>
-        <v>[23,13,68]</v>
+        <v>[23,13,12]</v>
       </c>
       <c r="AC23" s="27">
         <f>VLOOKUP(R23,ITEMS!$A$2:$C$57,3,0)</f>
@@ -9085,26 +9100,26 @@
       </c>
       <c r="AE23" s="27">
         <f>VLOOKUP(T23,ITEMS!$A$2:$C$57,3,0)</f>
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="AF23" s="27" t="str">
         <f t="shared" ref="AF23" si="15">CONCATENATE("[",AC23,",",AD23,",",AE23,"]")</f>
-        <v>[57,46,23]</v>
+        <v>[57,46,68]</v>
       </c>
       <c r="AG23" s="15" t="str">
         <f t="shared" si="3"/>
         <v>"bestSets": [
         {
-          "name": "Mirror Attack / Critical Damage / Critical Chance / Debuffer (Prevent Mana)",
-          "items": [68,19,46]
-        },
-        {
-          "name": "Attack Speed / Life Steal / Mirror Attack",
-          "items": [23,13,68]
-        },
-        {
-          "name": "Burn Damage / Debuffer (Prevent Heal) / Debuffer (Prevent Mana) / Attack Speed",
-          "items": [57,46,23]
+          "name": "Mirror Attack / True Damage (Max Health) / Debuffer (Prevent Mana)",
+          "items": [68,12,46]
+        },
+        {
+          "name": "Attack Speed / Life Steal / True Damage (Max Health)",
+          "items": [23,13,12]
+        },
+        {
+          "name": "Burn Damage / Debuffer (Prevent Heal) / Debuffer (Prevent Mana) / Mirror Attack",
+          "items": [57,46,68]
         }
       ]</v>
       </c>
@@ -9112,16 +9127,16 @@
         <f t="shared" si="4"/>
         <v>"bestSets": [
         {
-          "name": "Mirror Attack / Critical Damage / Critical Chance / Debuffer (Prevent Mana)",
-          "items": [68,19,46]
-        },
-        {
-          "name": "Attack Speed / Life Steal / Mirror Attack",
-          "items": [23,13,68]
-        },
-        {
-          "name": "Burn Damage / Debuffer (Prevent Heal) / Debuffer (Prevent Mana) / Attack Speed",
-          "items": [57,46,23]
+          "name": "Mirror Attack / True Damage (Max Health) / Debuffer (Prevent Mana)",
+          "items": [68,12,46]
+        },
+        {
+          "name": "Attack Speed / Life Steal / True Damage (Max Health)",
+          "items": [23,13,12]
+        },
+        {
+          "name": "Burn Damage / Debuffer (Prevent Heal) / Debuffer (Prevent Mana) / Mirror Attack",
+          "items": [57,46,68]
         }
       ]</v>
       </c>
@@ -9129,16 +9144,16 @@
         <f t="shared" si="5"/>
         <v>"bestSets": [
         {
-          "name": "Ataque Espelhado / Dano Crítico / Chance de Crítico / Debuffer (Impede de Ganhar mana)",
-          "items": [68,19,46]
-        },
-        {
-          "name": "Velocidade de Ataque / Roubo de Vida / Ataque Espelhado",
-          "items": [23,13,68]
-        },
-        {
-          "name": "Dano de Queimadura / Debuffer (Previne Cura) / Debuffer (Impede de Ganhar mana) / Velocidade de Ataque",
-          "items": [57,46,23]
+          "name": "Ataque Espelhado / Dano Verdadeiro (Vida Máxima) / Debuffer (Impede de Ganhar mana)",
+          "items": [68,12,46]
+        },
+        {
+          "name": "Velocidade de Ataque / Roubo de Vida / Dano Verdadeiro (Vida Máxima)",
+          "items": [23,13,12]
+        },
+        {
+          "name": "Dano de Queimadura / Debuffer (Previne Cura) / Debuffer (Impede de Ganhar mana) / Ataque Espelhado",
+          "items": [57,46,68]
         }
       ]</v>
       </c>
@@ -9146,16 +9161,16 @@
         <f t="shared" si="6"/>
         <v>"bestSets": [
         {
-          "name": "Ataque Espelhado / Dano Crítico / Chance de Crítico / Debuffer (Impede de Ganhar mana)",
-          "items": [68,19,46]
-        },
-        {
-          "name": "Velocidade de Ataque / Roubo de Vida / Ataque Espelhado",
-          "items": [23,13,68]
-        },
-        {
-          "name": "Dano de Queimadura / Debuffer (Previne Cura) / Debuffer (Impede de Ganhar mana) / Velocidade de Ataque",
-          "items": [57,46,23]
+          "name": "Ataque Espelhado / Dano Verdadeiro (Vida Máxima) / Debuffer (Impede de Ganhar mana)",
+          "items": [68,12,46]
+        },
+        {
+          "name": "Velocidade de Ataque / Roubo de Vida / Dano Verdadeiro (Vida Máxima)",
+          "items": [23,13,12]
+        },
+        {
+          "name": "Dano de Queimadura / Debuffer (Previne Cura) / Debuffer (Impede de Ganhar mana) / Ataque Espelhado",
+          "items": [57,46,68]
         }
       ]</v>
       </c>
@@ -9188,28 +9203,28 @@
       </c>
       <c r="K24" s="13" t="str">
         <f>CONCATENATE("""",VLOOKUP($M24,ITEMS!$A$2:$E$57,5,0)," / ",VLOOKUP($N24,ITEMS!$A$2:$E$57,5,0)," / ",VLOOKUP($O24,ITEMS!$A$2:$E$57,5,0),"""")</f>
-        <v>"Attack Speed / Mana Generation / Life Steal"</v>
+        <v>"Attack Speed / True Damage (Max Health) / Splash Damage"</v>
       </c>
       <c r="L24" s="13" t="str">
         <f>CONCATENATE("""",VLOOKUP($M24,ITEMS!$A$2:$F$57,6,0)," / ",VLOOKUP($N24,ITEMS!$A$2:$F$57,6,0)," / ",VLOOKUP($O24,ITEMS!$A$2:$F$57,6,0),"""")</f>
-        <v>"Velocidade de Ataque / Geração de Mana / Roubo de Vida"</v>
+        <v>"Velocidade de Ataque / Dano Verdadeiro (Vida Máxima) / Dano em área"</v>
       </c>
       <c r="M24" s="25" t="s">
         <v>19</v>
       </c>
       <c r="N24" s="25" t="s">
-        <v>13</v>
+        <v>321</v>
       </c>
       <c r="O24" s="25" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="P24" s="13" t="str">
         <f>CONCATENATE("""",VLOOKUP($R24,ITEMS!$A$2:$E$57,5,0)," / ",VLOOKUP($S24,ITEMS!$A$2:$E$57,5,0)," / ",VLOOKUP($T24,ITEMS!$A$2:$E$57,5,0),"""")</f>
-        <v>"Magic Resistance / Revive / Critical Damage / Critical Chance"</v>
+        <v>"Magic Resistance / Revive / True Damage (Max Health)"</v>
       </c>
       <c r="Q24" s="13" t="str">
         <f>CONCATENATE("""",VLOOKUP($R24,ITEMS!$A$2:$F$57,6,0)," / ",VLOOKUP($S24,ITEMS!$A$2:$F$57,6,0)," / ",VLOOKUP($T24,ITEMS!$A$2:$F$57,6,0),"""")</f>
-        <v>"Resistência Mágica / Reviver / Dano Crítico / Chance de Crítico"</v>
+        <v>"Resistência Mágica / Reviver / Dano Verdadeiro (Vida Máxima)"</v>
       </c>
       <c r="R24" s="25" t="s">
         <v>40</v>
@@ -9218,7 +9233,7 @@
         <v>14</v>
       </c>
       <c r="T24" s="25" t="s">
-        <v>10</v>
+        <v>321</v>
       </c>
       <c r="U24" s="27">
         <f>VLOOKUP(H24,ITEMS!$A$2:$C$57,3,0)</f>
@@ -9242,15 +9257,15 @@
       </c>
       <c r="Z24" s="27">
         <f>VLOOKUP(N24,ITEMS!$A$2:$C$57,3,0)</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AA24" s="27">
         <f>VLOOKUP(O24,ITEMS!$A$2:$C$57,3,0)</f>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AB24" s="27" t="str">
         <f t="shared" ref="AB24" si="17">CONCATENATE("[",Y24,",",Z24,",",AA24,"]")</f>
-        <v>[23,14,16]</v>
+        <v>[23,12,24]</v>
       </c>
       <c r="AC24" s="27">
         <f>VLOOKUP(R24,ITEMS!$A$2:$C$57,3,0)</f>
@@ -9262,11 +9277,11 @@
       </c>
       <c r="AE24" s="27">
         <f>VLOOKUP(T24,ITEMS!$A$2:$C$57,3,0)</f>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AF24" s="27" t="str">
         <f t="shared" ref="AF24" si="18">CONCATENATE("[",AC24,",",AD24,",",AE24,"]")</f>
-        <v>[66,15,19]</v>
+        <v>[66,15,12]</v>
       </c>
       <c r="AG24" s="15" t="str">
         <f t="shared" ref="AG24" si="19">CONCATENATE($AL$2,F24,$AL$4,X24,$AL$5,K24,$AL$7,AB24,$AL$8,P24,$AL$10,AF24,$AL$11)</f>
@@ -9276,12 +9291,12 @@
           "items": [23,16,19]
         },
         {
-          "name": "Attack Speed / Mana Generation / Life Steal",
-          "items": [23,14,16]
-        },
-        {
-          "name": "Magic Resistance / Revive / Critical Damage / Critical Chance",
-          "items": [66,15,19]
+          "name": "Attack Speed / True Damage (Max Health) / Splash Damage",
+          "items": [23,12,24]
+        },
+        {
+          "name": "Magic Resistance / Revive / True Damage (Max Health)",
+          "items": [66,15,12]
         }
       ]</v>
       </c>
@@ -9293,12 +9308,12 @@
           "items": [23,16,19]
         },
         {
-          "name": "Attack Speed / Mana Generation / Life Steal",
-          "items": [23,14,16]
-        },
-        {
-          "name": "Magic Resistance / Revive / Critical Damage / Critical Chance",
-          "items": [66,15,19]
+          "name": "Attack Speed / True Damage (Max Health) / Splash Damage",
+          "items": [23,12,24]
+        },
+        {
+          "name": "Magic Resistance / Revive / True Damage (Max Health)",
+          "items": [66,15,12]
         }
       ]</v>
       </c>
@@ -9310,12 +9325,12 @@
           "items": [23,16,19]
         },
         {
-          "name": "Velocidade de Ataque / Geração de Mana / Roubo de Vida",
-          "items": [23,14,16]
-        },
-        {
-          "name": "Resistência Mágica / Reviver / Dano Crítico / Chance de Crítico",
-          "items": [66,15,19]
+          "name": "Velocidade de Ataque / Dano Verdadeiro (Vida Máxima) / Dano em área",
+          "items": [23,12,24]
+        },
+        {
+          "name": "Resistência Mágica / Reviver / Dano Verdadeiro (Vida Máxima)",
+          "items": [66,15,12]
         }
       ]</v>
       </c>
@@ -9327,12 +9342,12 @@
           "items": [23,16,19]
         },
         {
-          "name": "Velocidade de Ataque / Geração de Mana / Roubo de Vida",
-          "items": [23,14,16]
-        },
-        {
-          "name": "Resistência Mágica / Reviver / Dano Crítico / Chance de Crítico",
-          "items": [66,15,19]
+          "name": "Velocidade de Ataque / Dano Verdadeiro (Vida Máxima) / Dano em área",
+          "items": [23,12,24]
+        },
+        {
+          "name": "Resistência Mágica / Reviver / Dano Verdadeiro (Vida Máxima)",
+          "items": [66,15,12]
         }
       ]</v>
       </c>
@@ -9719,17 +9734,17 @@
       </c>
       <c r="K27" s="13" t="str">
         <f>CONCATENATE("""",VLOOKUP($M27,ITEMS!$A$2:$E$57,5,0)," / ",VLOOKUP($N27,ITEMS!$A$2:$E$57,5,0)," / ",VLOOKUP($O27,ITEMS!$A$2:$E$57,5,0),"""")</f>
-        <v>"Chance to Spell Crit / Mana Generation / Mana Generation"</v>
+        <v>"Chance to Spell Crit / Ability Damage / Mana Generation"</v>
       </c>
       <c r="L27" s="13" t="str">
         <f>CONCATENATE("""",VLOOKUP($M27,ITEMS!$A$2:$F$57,6,0)," / ",VLOOKUP($N27,ITEMS!$A$2:$F$57,6,0)," / ",VLOOKUP($O27,ITEMS!$A$2:$F$57,6,0),"""")</f>
-        <v>"Chance dos Feitiços darem dano Crítico / Geração de Mana / Geração de Mana"</v>
+        <v>"Chance dos Feitiços darem dano Crítico / Dano de Habilidade / Geração de Mana"</v>
       </c>
       <c r="M27" s="25" t="s">
         <v>314</v>
       </c>
       <c r="N27" s="25" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="O27" s="25" t="s">
         <v>31</v>
@@ -9773,7 +9788,7 @@
       </c>
       <c r="Z27" s="27">
         <f>VLOOKUP(N27,ITEMS!$A$2:$C$57,3,0)</f>
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="AA27" s="27">
         <f>VLOOKUP(O27,ITEMS!$A$2:$C$57,3,0)</f>
@@ -9781,7 +9796,7 @@
       </c>
       <c r="AB27" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>[39,44,44]</v>
+        <v>[39,33,44]</v>
       </c>
       <c r="AC27" s="27">
         <f>VLOOKUP(R27,ITEMS!$A$2:$C$57,3,0)</f>
@@ -9807,8 +9822,8 @@
           "items": [33,44,44]
         },
         {
-          "name": "Chance to Spell Crit / Mana Generation / Mana Generation",
-          "items": [39,44,44]
+          "name": "Chance to Spell Crit / Ability Damage / Mana Generation",
+          "items": [39,33,44]
         },
         {
           "name": "Mana Generation / Critical Damage / Critical Chance / Chance to Spell Crit",
@@ -9824,8 +9839,8 @@
           "items": [33,44,44]
         },
         {
-          "name": "Chance to Spell Crit / Mana Generation / Mana Generation",
-          "items": [39,44,44]
+          "name": "Chance to Spell Crit / Ability Damage / Mana Generation",
+          "items": [39,33,44]
         },
         {
           "name": "Mana Generation / Critical Damage / Critical Chance / Chance to Spell Crit",
@@ -9841,8 +9856,8 @@
           "items": [33,44,44]
         },
         {
-          "name": "Chance dos Feitiços darem dano Crítico / Geração de Mana / Geração de Mana",
-          "items": [39,44,44]
+          "name": "Chance dos Feitiços darem dano Crítico / Dano de Habilidade / Geração de Mana",
+          "items": [39,33,44]
         },
         {
           "name": "Geração de Mana / Dano Crítico / Chance de Crítico / Chance dos Feitiços darem dano Crítico",
@@ -9858,8 +9873,8 @@
           "items": [33,44,44]
         },
         {
-          "name": "Chance dos Feitiços darem dano Crítico / Geração de Mana / Geração de Mana",
-          "items": [39,44,44]
+          "name": "Chance dos Feitiços darem dano Crítico / Dano de Habilidade / Geração de Mana",
+          "items": [39,33,44]
         },
         {
           "name": "Geração de Mana / Dano Crítico / Chance de Crítico / Chance dos Feitiços darem dano Crítico",
@@ -10233,11 +10248,11 @@
       </c>
       <c r="F30" s="13" t="str">
         <f>CONCATENATE("""",VLOOKUP($H30,ITEMS!$A$2:$E$57,5,0)," / ",VLOOKUP($I30,ITEMS!$A$2:$E$57,5,0)," / ",VLOOKUP($J30,ITEMS!$A$2:$E$57,5,0),"""")</f>
-        <v>"Critical Damage / Critical Chance / Attack Damage / Life on Hit / Life Steal"</v>
+        <v>"Critical Damage / Critical Chance / Attack Damage / Life on Hit / Revive"</v>
       </c>
       <c r="G30" s="13" t="str">
         <f>CONCATENATE("""",VLOOKUP($H30,ITEMS!$A$2:$F$57,6,0)," / ",VLOOKUP($I30,ITEMS!$A$2:$F$57,6,0)," / ",VLOOKUP($J30,ITEMS!$A$2:$F$57,6,0),"""")</f>
-        <v>"Dano Crítico / Chance de Crítico / Dano de Ataque / Vida ao acertar / Roubo de Vida"</v>
+        <v>"Dano Crítico / Chance de Crítico / Dano de Ataque / Vida ao acertar / Reviver"</v>
       </c>
       <c r="H30" s="25" t="s">
         <v>10</v>
@@ -10246,7 +10261,7 @@
         <v>315</v>
       </c>
       <c r="J30" s="25" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K30" s="13" t="str">
         <f>CONCATENATE("""",VLOOKUP($M30,ITEMS!$A$2:$E$57,5,0)," / ",VLOOKUP($N30,ITEMS!$A$2:$E$57,5,0)," / ",VLOOKUP($O30,ITEMS!$A$2:$E$57,5,0),"""")</f>
@@ -10292,11 +10307,11 @@
       </c>
       <c r="W30" s="27">
         <f>VLOOKUP(J30,ITEMS!$A$2:$C$57,3,0)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X30" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>[19,49,13]</v>
+        <v>[19,49,15]</v>
       </c>
       <c r="Y30" s="27">
         <f>VLOOKUP(M30,ITEMS!$A$2:$C$57,3,0)</f>
@@ -10334,8 +10349,8 @@
         <f t="shared" si="3"/>
         <v>"bestSets": [
         {
-          "name": "Critical Damage / Critical Chance / Attack Damage / Life on Hit / Life Steal",
-          "items": [19,49,13]
+          "name": "Critical Damage / Critical Chance / Attack Damage / Life on Hit / Revive",
+          "items": [19,49,15]
         },
         {
           "name": "Critical Damage / Critical Chance / True Damage (Max Health) / Life Steal",
@@ -10351,8 +10366,8 @@
         <f t="shared" si="4"/>
         <v>"bestSets": [
         {
-          "name": "Critical Damage / Critical Chance / Attack Damage / Life on Hit / Life Steal",
-          "items": [19,49,13]
+          "name": "Critical Damage / Critical Chance / Attack Damage / Life on Hit / Revive",
+          "items": [19,49,15]
         },
         {
           "name": "Critical Damage / Critical Chance / True Damage (Max Health) / Life Steal",
@@ -10368,8 +10383,8 @@
         <f t="shared" si="5"/>
         <v>"bestSets": [
         {
-          "name": "Dano Crítico / Chance de Crítico / Dano de Ataque / Vida ao acertar / Roubo de Vida",
-          "items": [19,49,13]
+          "name": "Dano Crítico / Chance de Crítico / Dano de Ataque / Vida ao acertar / Reviver",
+          "items": [19,49,15]
         },
         {
           "name": "Dano Crítico / Chance de Crítico / Dano Verdadeiro (Vida Máxima) / Roubo de Vida",
@@ -10385,8 +10400,8 @@
         <f t="shared" si="6"/>
         <v>"bestSets": [
         {
-          "name": "Dano Crítico / Chance de Crítico / Dano de Ataque / Vida ao acertar / Roubo de Vida",
-          "items": [19,49,13]
+          "name": "Dano Crítico / Chance de Crítico / Dano de Ataque / Vida ao acertar / Reviver",
+          "items": [19,49,15]
         },
         {
           "name": "Dano Crítico / Chance de Crítico / Dano Verdadeiro (Vida Máxima) / Roubo de Vida",
@@ -11329,20 +11344,20 @@
       </c>
       <c r="P36" s="13" t="str">
         <f>CONCATENATE("""",VLOOKUP($R36,ITEMS!$A$2:$E$57,5,0)," / ",VLOOKUP($S36,ITEMS!$A$2:$E$57,5,0)," / ",VLOOKUP($T36,ITEMS!$A$2:$E$57,5,0),"""")</f>
-        <v>"Mana Generation / Mana Generation / Chance to Spell Crit"</v>
+        <v>"Attack Speed / True Damage (Max Health) / Debuffer (Prevent Mana)"</v>
       </c>
       <c r="Q36" s="13" t="str">
         <f>CONCATENATE("""",VLOOKUP($R36,ITEMS!$A$2:$F$57,6,0)," / ",VLOOKUP($S36,ITEMS!$A$2:$F$57,6,0)," / ",VLOOKUP($T36,ITEMS!$A$2:$F$57,6,0),"""")</f>
-        <v>"Geração de Mana / Geração de Mana / Chance dos Feitiços darem dano Crítico"</v>
+        <v>"Velocidade de Ataque / Dano Verdadeiro (Vida Máxima) / Debuffer (Impede de Ganhar mana)"</v>
       </c>
       <c r="R36" s="25" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="S36" s="25" t="s">
-        <v>31</v>
+        <v>346</v>
       </c>
       <c r="T36" s="25" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="U36" s="27">
         <f>VLOOKUP(H36,ITEMS!$A$2:$C$57,3,0)</f>
@@ -11378,19 +11393,19 @@
       </c>
       <c r="AC36" s="27">
         <f>VLOOKUP(R36,ITEMS!$A$2:$C$57,3,0)</f>
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="AD36" s="27">
         <f>VLOOKUP(S36,ITEMS!$A$2:$C$57,3,0)</f>
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="AE36" s="27">
         <f>VLOOKUP(T36,ITEMS!$A$2:$C$57,3,0)</f>
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AF36" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>[44,44,39]</v>
+        <v>[23,12,46]</v>
       </c>
       <c r="AG36" s="15" t="str">
         <f t="shared" si="3"/>
@@ -11404,8 +11419,8 @@
           "items": [23,14,14]
         },
         {
-          "name": "Mana Generation / Mana Generation / Chance to Spell Crit",
-          "items": [44,44,39]
+          "name": "Attack Speed / True Damage (Max Health) / Debuffer (Prevent Mana)",
+          "items": [23,12,46]
         }
       ]</v>
       </c>
@@ -11421,8 +11436,8 @@
           "items": [23,14,14]
         },
         {
-          "name": "Mana Generation / Mana Generation / Chance to Spell Crit",
-          "items": [44,44,39]
+          "name": "Attack Speed / True Damage (Max Health) / Debuffer (Prevent Mana)",
+          "items": [23,12,46]
         }
       ]</v>
       </c>
@@ -11438,8 +11453,8 @@
           "items": [23,14,14]
         },
         {
-          "name": "Geração de Mana / Geração de Mana / Chance dos Feitiços darem dano Crítico",
-          "items": [44,44,39]
+          "name": "Velocidade de Ataque / Dano Verdadeiro (Vida Máxima) / Debuffer (Impede de Ganhar mana)",
+          "items": [23,12,46]
         }
       ]</v>
       </c>
@@ -11455,8 +11470,8 @@
           "items": [23,14,14]
         },
         {
-          "name": "Geração de Mana / Geração de Mana / Chance dos Feitiços darem dano Crítico",
-          "items": [44,44,39]
+          "name": "Velocidade de Ataque / Dano Verdadeiro (Vida Máxima) / Debuffer (Impede de Ganhar mana)",
+          "items": [23,12,46]
         }
       ]</v>
       </c>
@@ -11683,11 +11698,11 @@
       </c>
       <c r="P38" s="13" t="str">
         <f>CONCATENATE("""",VLOOKUP($R38,ITEMS!$A$2:$E$57,5,0)," / ",VLOOKUP($S38,ITEMS!$A$2:$E$57,5,0)," / ",VLOOKUP($T38,ITEMS!$A$2:$E$57,5,0),"""")</f>
-        <v>"Mana Generation / Burn Damage / Debuffer (Prevent Heal) / Chance to Spell Crit"</v>
+        <v>"Mana Generation / Burn Damage / Debuffer (Prevent Heal) / Area Heal"</v>
       </c>
       <c r="Q38" s="13" t="str">
         <f>CONCATENATE("""",VLOOKUP($R38,ITEMS!$A$2:$F$57,6,0)," / ",VLOOKUP($S38,ITEMS!$A$2:$F$57,6,0)," / ",VLOOKUP($T38,ITEMS!$A$2:$F$57,6,0),"""")</f>
-        <v>"Geração de Mana / Dano de Queimadura / Debuffer (Previne Cura) / Chance dos Feitiços darem dano Crítico"</v>
+        <v>"Geração de Mana / Dano de Queimadura / Debuffer (Previne Cura) / Cura em Área"</v>
       </c>
       <c r="R38" s="25" t="s">
         <v>31</v>
@@ -11696,7 +11711,7 @@
         <v>29</v>
       </c>
       <c r="T38" s="25" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="U38" s="27">
         <f>VLOOKUP(H38,ITEMS!$A$2:$C$57,3,0)</f>
@@ -11740,11 +11755,11 @@
       </c>
       <c r="AE38" s="27">
         <f>VLOOKUP(T38,ITEMS!$A$2:$C$57,3,0)</f>
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AF38" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>[44,37,39]</v>
+        <v>[44,37,47]</v>
       </c>
       <c r="AG38" s="15" t="str">
         <f t="shared" si="3"/>
@@ -11758,8 +11773,8 @@
           "items": [44,37,34]
         },
         {
-          "name": "Mana Generation / Burn Damage / Debuffer (Prevent Heal) / Chance to Spell Crit",
-          "items": [44,37,39]
+          "name": "Mana Generation / Burn Damage / Debuffer (Prevent Heal) / Area Heal",
+          "items": [44,37,47]
         }
       ]</v>
       </c>
@@ -11775,8 +11790,8 @@
           "items": [44,37,34]
         },
         {
-          "name": "Mana Generation / Burn Damage / Debuffer (Prevent Heal) / Chance to Spell Crit",
-          "items": [44,37,39]
+          "name": "Mana Generation / Burn Damage / Debuffer (Prevent Heal) / Area Heal",
+          "items": [44,37,47]
         }
       ]</v>
       </c>
@@ -11792,8 +11807,8 @@
           "items": [44,37,34]
         },
         {
-          "name": "Geração de Mana / Dano de Queimadura / Debuffer (Previne Cura) / Chance dos Feitiços darem dano Crítico",
-          "items": [44,37,39]
+          "name": "Geração de Mana / Dano de Queimadura / Debuffer (Previne Cura) / Cura em Área",
+          "items": [44,37,47]
         }
       ]</v>
       </c>
@@ -11809,8 +11824,8 @@
           "items": [44,37,34]
         },
         {
-          "name": "Geração de Mana / Dano de Queimadura / Debuffer (Previne Cura) / Chance dos Feitiços darem dano Crítico",
-          "items": [44,37,39]
+          "name": "Geração de Mana / Dano de Queimadura / Debuffer (Previne Cura) / Cura em Área",
+          "items": [44,37,47]
         }
       ]</v>
       </c>
@@ -11994,7 +12009,7 @@
       <c r="AK39" s="3"/>
       <c r="AL39" s="5"/>
     </row>
-    <row r="40" spans="1:38" s="2" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38" s="2" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40"/>
@@ -12037,20 +12052,20 @@
       </c>
       <c r="P40" s="13" t="str">
         <f>CONCATENATE("""",VLOOKUP($R40,ITEMS!$A$2:$E$57,5,0)," / ",VLOOKUP($S40,ITEMS!$A$2:$E$57,5,0)," / ",VLOOKUP($T40,ITEMS!$A$2:$E$57,5,0),"""")</f>
-        <v>"Mana Generation / HP Regeneration / Debuffer (attack speed)"</v>
+        <v>"Reflect Damage / Reflect Damage / HP Regeneration"</v>
       </c>
       <c r="Q40" s="13" t="str">
         <f>CONCATENATE("""",VLOOKUP($R40,ITEMS!$A$2:$F$57,6,0)," / ",VLOOKUP($S40,ITEMS!$A$2:$F$57,6,0)," / ",VLOOKUP($T40,ITEMS!$A$2:$F$57,6,0),"""")</f>
-        <v>"Geração de Mana / Regeneração de Vida / Debuffer (velocidade de ataque)"</v>
+        <v>"Reflete Dano / Reflete Dano / Regeneração de Vida"</v>
       </c>
       <c r="R40" s="25" t="s">
-        <v>13</v>
+        <v>349</v>
       </c>
       <c r="S40" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="T40" s="25" t="s">
         <v>43</v>
-      </c>
-      <c r="T40" s="25" t="s">
-        <v>345</v>
       </c>
       <c r="U40" s="27">
         <f>VLOOKUP(H40,ITEMS!$A$2:$C$57,3,0)</f>
@@ -12086,19 +12101,19 @@
       </c>
       <c r="AC40" s="27">
         <f>VLOOKUP(R40,ITEMS!$A$2:$C$57,3,0)</f>
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="AD40" s="27">
         <f>VLOOKUP(S40,ITEMS!$A$2:$C$57,3,0)</f>
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="AE40" s="27">
         <f>VLOOKUP(T40,ITEMS!$A$2:$C$57,3,0)</f>
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="AF40" s="27" t="str">
         <f t="shared" ref="AF40" si="25">CONCATENATE("[",AC40,",",AD40,",",AE40,"]")</f>
-        <v>[14,77,59]</v>
+        <v>[55,55,77]</v>
       </c>
       <c r="AG40" s="15" t="str">
         <f t="shared" ref="AG40" si="26">CONCATENATE($AL$2,F40,$AL$4,X40,$AL$5,K40,$AL$7,AB40,$AL$8,P40,$AL$10,AF40,$AL$11)</f>
@@ -12112,8 +12127,8 @@
           "items": [77,77,27]
         },
         {
-          "name": "Mana Generation / HP Regeneration / Debuffer (attack speed)",
-          "items": [14,77,59]
+          "name": "Reflect Damage / Reflect Damage / HP Regeneration",
+          "items": [55,55,77]
         }
       ]</v>
       </c>
@@ -12129,8 +12144,8 @@
           "items": [77,77,27]
         },
         {
-          "name": "Mana Generation / HP Regeneration / Debuffer (attack speed)",
-          "items": [14,77,59]
+          "name": "Reflect Damage / Reflect Damage / HP Regeneration",
+          "items": [55,55,77]
         }
       ]</v>
       </c>
@@ -12146,8 +12161,8 @@
           "items": [77,77,27]
         },
         {
-          "name": "Geração de Mana / Regeneração de Vida / Debuffer (velocidade de ataque)",
-          "items": [14,77,59]
+          "name": "Reflete Dano / Reflete Dano / Regeneração de Vida",
+          "items": [55,55,77]
         }
       ]</v>
       </c>
@@ -12163,8 +12178,8 @@
           "items": [77,77,27]
         },
         {
-          "name": "Geração de Mana / Regeneração de Vida / Debuffer (velocidade de ataque)",
-          "items": [14,77,59]
+          "name": "Reflete Dano / Reflete Dano / Regeneração de Vida",
+          "items": [55,55,77]
         }
       ]</v>
       </c>
@@ -12374,20 +12389,20 @@
       </c>
       <c r="K42" s="13" t="str">
         <f>CONCATENATE("""",VLOOKUP($M42,ITEMS!$A$2:$E$57,5,0)," / ",VLOOKUP($N42,ITEMS!$A$2:$E$57,5,0)," / ",VLOOKUP($O42,ITEMS!$A$2:$E$57,5,0),"""")</f>
-        <v>"Mana Generation / Burn Damage / Debuffer (Prevent Heal) / Debuffer (Slow)"</v>
+        <v>"Mana Generation / Mana Generation / Burn Damage / Debuffer (Prevent Heal)"</v>
       </c>
       <c r="L42" s="13" t="str">
         <f>CONCATENATE("""",VLOOKUP($M42,ITEMS!$A$2:$F$57,6,0)," / ",VLOOKUP($N42,ITEMS!$A$2:$F$57,6,0)," / ",VLOOKUP($O42,ITEMS!$A$2:$F$57,6,0),"""")</f>
-        <v>"Geração de Mana / Dano de Queimadura / Debuffer (Previne Cura) / Debuffer (Lentidão)"</v>
+        <v>"Geração de Mana / Geração de Mana / Dano de Queimadura / Debuffer (Previne Cura)"</v>
       </c>
       <c r="M42" s="25" t="s">
         <v>13</v>
       </c>
       <c r="N42" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="O42" s="25" t="s">
         <v>29</v>
-      </c>
-      <c r="O42" s="25" t="s">
-        <v>32</v>
       </c>
       <c r="P42" s="13" t="str">
         <f>CONCATENATE("""",VLOOKUP($R42,ITEMS!$A$2:$E$57,5,0)," / ",VLOOKUP($S42,ITEMS!$A$2:$E$57,5,0)," / ",VLOOKUP($T42,ITEMS!$A$2:$E$57,5,0),"""")</f>
@@ -12428,15 +12443,15 @@
       </c>
       <c r="Z42" s="27">
         <f>VLOOKUP(N42,ITEMS!$A$2:$C$57,3,0)</f>
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="AA42" s="27">
         <f>VLOOKUP(O42,ITEMS!$A$2:$C$57,3,0)</f>
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AB42" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>[14,37,45]</v>
+        <v>[14,14,37]</v>
       </c>
       <c r="AC42" s="27">
         <f>VLOOKUP(R42,ITEMS!$A$2:$C$57,3,0)</f>
@@ -12462,8 +12477,8 @@
           "items": [14,14,23]
         },
         {
-          "name": "Mana Generation / Burn Damage / Debuffer (Prevent Heal) / Debuffer (Slow)",
-          "items": [14,37,45]
+          "name": "Mana Generation / Mana Generation / Burn Damage / Debuffer (Prevent Heal)",
+          "items": [14,14,37]
         },
         {
           "name": "Mana Generation / Attack Damage / Life on Hit / Critical Damage / Critical Chance",
@@ -12479,8 +12494,8 @@
           "items": [14,14,23]
         },
         {
-          "name": "Mana Generation / Burn Damage / Debuffer (Prevent Heal) / Debuffer (Slow)",
-          "items": [14,37,45]
+          "name": "Mana Generation / Mana Generation / Burn Damage / Debuffer (Prevent Heal)",
+          "items": [14,14,37]
         },
         {
           "name": "Mana Generation / Attack Damage / Life on Hit / Critical Damage / Critical Chance",
@@ -12496,8 +12511,8 @@
           "items": [14,14,23]
         },
         {
-          "name": "Geração de Mana / Dano de Queimadura / Debuffer (Previne Cura) / Debuffer (Lentidão)",
-          "items": [14,37,45]
+          "name": "Geração de Mana / Geração de Mana / Dano de Queimadura / Debuffer (Previne Cura)",
+          "items": [14,14,37]
         },
         {
           "name": "Geração de Mana / Dano de Ataque / Vida ao acertar / Dano Crítico / Chance de Crítico",
@@ -12513,8 +12528,8 @@
           "items": [14,14,23]
         },
         {
-          "name": "Geração de Mana / Dano de Queimadura / Debuffer (Previne Cura) / Debuffer (Lentidão)",
-          "items": [14,37,45]
+          "name": "Geração de Mana / Geração de Mana / Dano de Queimadura / Debuffer (Previne Cura)",
+          "items": [14,14,37]
         },
         {
           "name": "Geração de Mana / Dano de Ataque / Vida ao acertar / Dano Crítico / Chance de Crítico",
@@ -13612,20 +13627,20 @@
       </c>
       <c r="K49" s="13" t="str">
         <f>CONCATENATE("""",VLOOKUP($M49,ITEMS!$A$2:$E$57,5,0)," / ",VLOOKUP($N49,ITEMS!$A$2:$E$57,5,0)," / ",VLOOKUP($O49,ITEMS!$A$2:$E$57,5,0),"""")</f>
-        <v>"Attack Speed / Attack Speed / Buffer (Double Range) / Burn Damage / Debuffer (Prevent Heal)"</v>
+        <v>"Attack Speed / Debuffer (Prevent Mana) / True Damage (Max Health)"</v>
       </c>
       <c r="L49" s="13" t="str">
         <f>CONCATENATE("""",VLOOKUP($M49,ITEMS!$A$2:$F$57,6,0)," / ",VLOOKUP($N49,ITEMS!$A$2:$F$57,6,0)," / ",VLOOKUP($O49,ITEMS!$A$2:$F$57,6,0),"""")</f>
-        <v>"Velocidade de Ataque / Velocidade de Ataque / Buffer (Dobra Alcance) / Dano de Queimadura / Debuffer (Previne Cura)"</v>
+        <v>"Velocidade de Ataque / Debuffer (Impede de Ganhar mana) / Dano Verdadeiro (Vida Máxima)"</v>
       </c>
       <c r="M49" s="25" t="s">
         <v>19</v>
       </c>
       <c r="N49" s="25" t="s">
-        <v>18</v>
+        <v>347</v>
       </c>
       <c r="O49" s="25" t="s">
-        <v>38</v>
+        <v>346</v>
       </c>
       <c r="P49" s="13" t="str">
         <f>CONCATENATE("""",VLOOKUP($R49,ITEMS!$A$2:$E$57,5,0)," / ",VLOOKUP($S49,ITEMS!$A$2:$E$57,5,0)," / ",VLOOKUP($T49,ITEMS!$A$2:$E$57,5,0),"""")</f>
@@ -13666,15 +13681,15 @@
       </c>
       <c r="Z49" s="27">
         <f>VLOOKUP(N49,ITEMS!$A$2:$C$57,3,0)</f>
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="AA49" s="27">
         <f>VLOOKUP(O49,ITEMS!$A$2:$C$57,3,0)</f>
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="AB49" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>[23,22,57]</v>
+        <v>[23,46,12]</v>
       </c>
       <c r="AC49" s="27">
         <f>VLOOKUP(R49,ITEMS!$A$2:$C$57,3,0)</f>
@@ -13700,8 +13715,8 @@
           "items": [57,46,26]
         },
         {
-          "name": "Attack Speed / Attack Speed / Buffer (Double Range) / Burn Damage / Debuffer (Prevent Heal)",
-          "items": [23,22,57]
+          "name": "Attack Speed / Debuffer (Prevent Mana) / True Damage (Max Health)",
+          "items": [23,46,12]
         },
         {
           "name": "Burn Damage / Debuffer (Prevent Heal) / Debuffer (Prevent Mana) / True Damage (Max Health)",
@@ -13717,8 +13732,8 @@
           "items": [57,46,26]
         },
         {
-          "name": "Attack Speed / Attack Speed / Buffer (Double Range) / Burn Damage / Debuffer (Prevent Heal)",
-          "items": [23,22,57]
+          "name": "Attack Speed / Debuffer (Prevent Mana) / True Damage (Max Health)",
+          "items": [23,46,12]
         },
         {
           "name": "Burn Damage / Debuffer (Prevent Heal) / Debuffer (Prevent Mana) / True Damage (Max Health)",
@@ -13734,8 +13749,8 @@
           "items": [57,46,26]
         },
         {
-          "name": "Velocidade de Ataque / Velocidade de Ataque / Buffer (Dobra Alcance) / Dano de Queimadura / Debuffer (Previne Cura)",
-          "items": [23,22,57]
+          "name": "Velocidade de Ataque / Debuffer (Impede de Ganhar mana) / Dano Verdadeiro (Vida Máxima)",
+          "items": [23,46,12]
         },
         {
           "name": "Dano de Queimadura / Debuffer (Previne Cura) / Debuffer (Impede de Ganhar mana) / Dano Verdadeiro (Vida Máxima)",
@@ -13751,8 +13766,8 @@
           "items": [57,46,26]
         },
         {
-          "name": "Velocidade de Ataque / Velocidade de Ataque / Buffer (Dobra Alcance) / Dano de Queimadura / Debuffer (Previne Cura)",
-          "items": [23,22,57]
+          "name": "Velocidade de Ataque / Debuffer (Impede de Ganhar mana) / Dano Verdadeiro (Vida Máxima)",
+          "items": [23,46,12]
         },
         {
           "name": "Dano de Queimadura / Debuffer (Previne Cura) / Debuffer (Impede de Ganhar mana) / Dano Verdadeiro (Vida Máxima)",
@@ -13768,15 +13783,15 @@
       <c r="B50" s="1"/>
       <c r="D50" s="2"/>
       <c r="E50" s="24" t="s">
-        <v>88</v>
+        <v>350</v>
       </c>
       <c r="F50" s="13" t="str">
         <f>CONCATENATE("""",VLOOKUP($H50,ITEMS!$A$2:$E$57,5,0)," / ",VLOOKUP($I50,ITEMS!$A$2:$E$57,5,0)," / ",VLOOKUP($J50,ITEMS!$A$2:$E$57,5,0),"""")</f>
-        <v>"Splash Damage / Splash Damage / Splash Damage"</v>
+        <v>"Splash Damage / Splash Damage / Attack Speed"</v>
       </c>
       <c r="G50" s="13" t="str">
         <f>CONCATENATE("""",VLOOKUP($H50,ITEMS!$A$2:$F$57,6,0)," / ",VLOOKUP($I50,ITEMS!$A$2:$F$57,6,0)," / ",VLOOKUP($J50,ITEMS!$A$2:$F$57,6,0),"""")</f>
-        <v>"Dano em área / Dano em área / Dano em área"</v>
+        <v>"Dano em área / Dano em área / Velocidade de Ataque"</v>
       </c>
       <c r="H50" s="25" t="s">
         <v>20</v>
@@ -13785,7 +13800,7 @@
         <v>20</v>
       </c>
       <c r="J50" s="25" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K50" s="13" t="str">
         <f>CONCATENATE("""",VLOOKUP($M50,ITEMS!$A$2:$E$57,5,0)," / ",VLOOKUP($N50,ITEMS!$A$2:$E$57,5,0)," / ",VLOOKUP($O50,ITEMS!$A$2:$E$57,5,0),"""")</f>
@@ -13831,11 +13846,11 @@
       </c>
       <c r="W50" s="27">
         <f>VLOOKUP(J50,ITEMS!$A$2:$C$57,3,0)</f>
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="X50" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>[24,24,34]</v>
+        <v>[24,24,23]</v>
       </c>
       <c r="Y50" s="27">
         <f>VLOOKUP(M50,ITEMS!$A$2:$C$57,3,0)</f>
@@ -13873,8 +13888,8 @@
         <f t="shared" si="3"/>
         <v>"bestSets": [
         {
-          "name": "Splash Damage / Splash Damage / Splash Damage",
-          "items": [24,24,34]
+          "name": "Splash Damage / Splash Damage / Attack Speed",
+          "items": [24,24,23]
         },
         {
           "name": "Attack Speed / Splash Damage / Mana Generation",
@@ -13890,8 +13905,8 @@
         <f t="shared" si="4"/>
         <v>"bestSets": [
         {
-          "name": "Splash Damage / Splash Damage / Splash Damage",
-          "items": [24,24,34]
+          "name": "Splash Damage / Splash Damage / Attack Speed",
+          "items": [24,24,23]
         },
         {
           "name": "Attack Speed / Splash Damage / Mana Generation",
@@ -13907,8 +13922,8 @@
         <f t="shared" si="5"/>
         <v>"bestSets": [
         {
-          "name": "Dano em área / Dano em área / Dano em área",
-          "items": [24,24,34]
+          "name": "Dano em área / Dano em área / Velocidade de Ataque",
+          "items": [24,24,23]
         },
         {
           "name": "Velocidade de Ataque / Dano em área / Geração de Mana",
@@ -13924,8 +13939,8 @@
         <f t="shared" si="6"/>
         <v>"bestSets": [
         {
-          "name": "Dano em área / Dano em área / Dano em área",
-          "items": [24,24,34]
+          "name": "Dano em área / Dano em área / Velocidade de Ataque",
+          "items": [24,24,23]
         },
         {
           "name": "Velocidade de Ataque / Dano em área / Geração de Mana",
@@ -13940,7 +13955,7 @@
       <c r="AK50" s="3"/>
       <c r="AL50" s="5"/>
     </row>
-    <row r="51" spans="1:38" customFormat="1" ht="240" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:38" customFormat="1" ht="255" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="E51" s="24" t="s">
@@ -13982,20 +13997,20 @@
       </c>
       <c r="P51" s="13" t="str">
         <f>CONCATENATE("""",VLOOKUP($R51,ITEMS!$A$2:$E$57,5,0)," / ",VLOOKUP($S51,ITEMS!$A$2:$E$57,5,0)," / ",VLOOKUP($T51,ITEMS!$A$2:$E$57,5,0),"""")</f>
-        <v>"Splash Damage / Splash Damage / Splash Damage"</v>
+        <v>"Mirror Attack / Attack Speed / True Damage (Max Health)"</v>
       </c>
       <c r="Q51" s="13" t="str">
         <f>CONCATENATE("""",VLOOKUP($R51,ITEMS!$A$2:$F$57,6,0)," / ",VLOOKUP($S51,ITEMS!$A$2:$F$57,6,0)," / ",VLOOKUP($T51,ITEMS!$A$2:$F$57,6,0),"""")</f>
-        <v>"Dano em área / Dano em área / Dano em área"</v>
+        <v>"Ataque Espelhado / Velocidade de Ataque / Dano Verdadeiro (Vida Máxima)"</v>
       </c>
       <c r="R51" s="25" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="S51" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T51" s="25" t="s">
-        <v>20</v>
+        <v>321</v>
       </c>
       <c r="U51" s="27">
         <f>VLOOKUP(H51,ITEMS!$A$2:$C$57,3,0)</f>
@@ -14031,19 +14046,19 @@
       </c>
       <c r="AC51" s="27">
         <f>VLOOKUP(R51,ITEMS!$A$2:$C$57,3,0)</f>
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="AD51" s="27">
         <f>VLOOKUP(S51,ITEMS!$A$2:$C$57,3,0)</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE51" s="27">
         <f>VLOOKUP(T51,ITEMS!$A$2:$C$57,3,0)</f>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="AF51" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>[24,24,24]</v>
+        <v>[68,23,12]</v>
       </c>
       <c r="AG51" s="15" t="str">
         <f t="shared" si="3"/>
@@ -14057,8 +14072,8 @@
           "items": [23,14,19]
         },
         {
-          "name": "Splash Damage / Splash Damage / Splash Damage",
-          "items": [24,24,24]
+          "name": "Mirror Attack / Attack Speed / True Damage (Max Health)",
+          "items": [68,23,12]
         }
       ]</v>
       </c>
@@ -14074,8 +14089,8 @@
           "items": [23,14,19]
         },
         {
-          "name": "Splash Damage / Splash Damage / Splash Damage",
-          "items": [24,24,24]
+          "name": "Mirror Attack / Attack Speed / True Damage (Max Health)",
+          "items": [68,23,12]
         }
       ]</v>
       </c>
@@ -14091,8 +14106,8 @@
           "items": [23,14,19]
         },
         {
-          "name": "Dano em área / Dano em área / Dano em área",
-          "items": [24,24,24]
+          "name": "Ataque Espelhado / Velocidade de Ataque / Dano Verdadeiro (Vida Máxima)",
+          "items": [68,23,12]
         }
       ]</v>
       </c>
@@ -14108,15 +14123,15 @@
           "items": [23,14,19]
         },
         {
-          "name": "Dano em área / Dano em área / Dano em área",
-          "items": [24,24,24]
+          "name": "Ataque Espelhado / Velocidade de Ataque / Dano Verdadeiro (Vida Máxima)",
+          "items": [68,23,12]
         }
       ]</v>
       </c>
       <c r="AK51" s="3"/>
       <c r="AL51" s="5"/>
     </row>
-    <row r="52" spans="1:38" customFormat="1" ht="240" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38" customFormat="1" ht="255" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="E52" s="24" t="s">
@@ -14158,20 +14173,20 @@
       </c>
       <c r="P52" s="13" t="str">
         <f>CONCATENATE("""",VLOOKUP($R52,ITEMS!$A$2:$E$57,5,0)," / ",VLOOKUP($S52,ITEMS!$A$2:$E$57,5,0)," / ",VLOOKUP($T52,ITEMS!$A$2:$E$57,5,0),"""")</f>
-        <v>"Splash Damage / Splash Damage / Splash Damage"</v>
+        <v>"Mirror Attack / True Damage (Max Health) / Attack Speed"</v>
       </c>
       <c r="Q52" s="13" t="str">
         <f>CONCATENATE("""",VLOOKUP($R52,ITEMS!$A$2:$F$57,6,0)," / ",VLOOKUP($S52,ITEMS!$A$2:$F$57,6,0)," / ",VLOOKUP($T52,ITEMS!$A$2:$F$57,6,0),"""")</f>
-        <v>"Dano em área / Dano em área / Dano em área"</v>
+        <v>"Ataque Espelhado / Dano Verdadeiro (Vida Máxima) / Velocidade de Ataque"</v>
       </c>
       <c r="R52" s="25" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="S52" s="25" t="s">
-        <v>20</v>
+        <v>346</v>
       </c>
       <c r="T52" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U52" s="27">
         <f>VLOOKUP(H52,ITEMS!$A$2:$C$57,3,0)</f>
@@ -14207,19 +14222,19 @@
       </c>
       <c r="AC52" s="27">
         <f>VLOOKUP(R52,ITEMS!$A$2:$C$57,3,0)</f>
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="AD52" s="27">
         <f>VLOOKUP(S52,ITEMS!$A$2:$C$57,3,0)</f>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="AE52" s="27">
         <f>VLOOKUP(T52,ITEMS!$A$2:$C$57,3,0)</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF52" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>[24,24,24]</v>
+        <v>[68,12,23]</v>
       </c>
       <c r="AG52" s="15" t="str">
         <f t="shared" si="3"/>
@@ -14233,8 +14248,8 @@
           "items": [23,22,19]
         },
         {
-          "name": "Splash Damage / Splash Damage / Splash Damage",
-          "items": [24,24,24]
+          "name": "Mirror Attack / True Damage (Max Health) / Attack Speed",
+          "items": [68,12,23]
         }
       ]</v>
       </c>
@@ -14250,8 +14265,8 @@
           "items": [23,22,19]
         },
         {
-          "name": "Splash Damage / Splash Damage / Splash Damage",
-          "items": [24,24,24]
+          "name": "Mirror Attack / True Damage (Max Health) / Attack Speed",
+          "items": [68,12,23]
         }
       ]</v>
       </c>
@@ -14267,8 +14282,8 @@
           "items": [23,22,19]
         },
         {
-          "name": "Dano em área / Dano em área / Dano em área",
-          "items": [24,24,24]
+          "name": "Ataque Espelhado / Dano Verdadeiro (Vida Máxima) / Velocidade de Ataque",
+          "items": [68,12,23]
         }
       ]</v>
       </c>
@@ -14284,8 +14299,8 @@
           "items": [23,22,19]
         },
         {
-          "name": "Dano em área / Dano em área / Dano em área",
-          "items": [24,24,24]
+          "name": "Ataque Espelhado / Dano Verdadeiro (Vida Máxima) / Velocidade de Ataque",
+          "items": [68,12,23]
         }
       ]</v>
       </c>
@@ -14474,14 +14489,14 @@
       </c>
       <c r="F54" s="13" t="str">
         <f>CONCATENATE("""",VLOOKUP($H54,ITEMS!$A$2:$E$57,5,0)," / ",VLOOKUP($I54,ITEMS!$A$2:$E$57,5,0)," / ",VLOOKUP($J54,ITEMS!$A$2:$E$57,5,0),"""")</f>
-        <v>"Debuffer (Slow) / HP Regeneration / Revive"</v>
+        <v>"HP Regeneration / HP Regeneration / Revive"</v>
       </c>
       <c r="G54" s="13" t="str">
         <f>CONCATENATE("""",VLOOKUP($H54,ITEMS!$A$2:$F$57,6,0)," / ",VLOOKUP($I54,ITEMS!$A$2:$F$57,6,0)," / ",VLOOKUP($J54,ITEMS!$A$2:$F$57,6,0),"""")</f>
-        <v>"Debuffer (Lentidão) / Regeneração de Vida / Reviver"</v>
+        <v>"Regeneração de Vida / Regeneração de Vida / Reviver"</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I54" s="25" t="s">
         <v>43</v>
@@ -14491,11 +14506,11 @@
       </c>
       <c r="K54" s="13" t="str">
         <f>CONCATENATE("""",VLOOKUP($M54,ITEMS!$A$2:$E$57,5,0)," / ",VLOOKUP($N54,ITEMS!$A$2:$E$57,5,0)," / ",VLOOKUP($O54,ITEMS!$A$2:$E$57,5,0),"""")</f>
-        <v>"Debuffer (Slow) / Magic Resistance / Dodge Critical Damage"</v>
+        <v>"Debuffer (Slow) / Magic Resistance / HP Regeneration"</v>
       </c>
       <c r="L54" s="13" t="str">
         <f>CONCATENATE("""",VLOOKUP($M54,ITEMS!$A$2:$F$57,6,0)," / ",VLOOKUP($N54,ITEMS!$A$2:$F$57,6,0)," / ",VLOOKUP($O54,ITEMS!$A$2:$F$57,6,0),"""")</f>
-        <v>"Debuffer (Lentidão) / Resistência Mágica / Esquiva Dano Crítico"</v>
+        <v>"Debuffer (Lentidão) / Resistência Mágica / Regeneração de Vida"</v>
       </c>
       <c r="M54" s="25" t="s">
         <v>32</v>
@@ -14504,7 +14519,7 @@
         <v>40</v>
       </c>
       <c r="O54" s="25" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="P54" s="13" t="str">
         <f>CONCATENATE("""",VLOOKUP($R54,ITEMS!$A$2:$E$57,5,0)," / ",VLOOKUP($S54,ITEMS!$A$2:$E$57,5,0)," / ",VLOOKUP($T54,ITEMS!$A$2:$E$57,5,0),"""")</f>
@@ -14525,7 +14540,7 @@
       </c>
       <c r="U54" s="27">
         <f>VLOOKUP(H54,ITEMS!$A$2:$C$57,3,0)</f>
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="V54" s="27">
         <f>VLOOKUP(I54,ITEMS!$A$2:$C$57,3,0)</f>
@@ -14537,7 +14552,7 @@
       </c>
       <c r="X54" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>[45,77,15]</v>
+        <v>[77,77,15]</v>
       </c>
       <c r="Y54" s="27">
         <f>VLOOKUP(M54,ITEMS!$A$2:$C$57,3,0)</f>
@@ -14549,11 +14564,11 @@
       </c>
       <c r="AA54" s="27">
         <f>VLOOKUP(O54,ITEMS!$A$2:$C$57,3,0)</f>
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="AB54" s="27" t="str">
         <f t="shared" ref="AB54" si="30">CONCATENATE("[",Y54,",",Z54,",",AA54,"]")</f>
-        <v>[45,66,25]</v>
+        <v>[45,66,77]</v>
       </c>
       <c r="AC54" s="27">
         <f>VLOOKUP(R54,ITEMS!$A$2:$C$57,3,0)</f>
@@ -14575,12 +14590,12 @@
         <f t="shared" si="3"/>
         <v>"bestSets": [
         {
-          "name": "Debuffer (Slow) / HP Regeneration / Revive",
-          "items": [45,77,15]
-        },
-        {
-          "name": "Debuffer (Slow) / Magic Resistance / Dodge Critical Damage",
-          "items": [45,66,25]
+          "name": "HP Regeneration / HP Regeneration / Revive",
+          "items": [77,77,15]
+        },
+        {
+          "name": "Debuffer (Slow) / Magic Resistance / HP Regeneration",
+          "items": [45,66,77]
         },
         {
           "name": "Splash Damage / HP Regeneration / HP Regeneration",
@@ -14592,12 +14607,12 @@
         <f t="shared" si="4"/>
         <v>"bestSets": [
         {
-          "name": "Debuffer (Slow) / HP Regeneration / Revive",
-          "items": [45,77,15]
-        },
-        {
-          "name": "Debuffer (Slow) / Magic Resistance / Dodge Critical Damage",
-          "items": [45,66,25]
+          "name": "HP Regeneration / HP Regeneration / Revive",
+          "items": [77,77,15]
+        },
+        {
+          "name": "Debuffer (Slow) / Magic Resistance / HP Regeneration",
+          "items": [45,66,77]
         },
         {
           "name": "Splash Damage / HP Regeneration / HP Regeneration",
@@ -14609,12 +14624,12 @@
         <f t="shared" si="5"/>
         <v>"bestSets": [
         {
-          "name": "Debuffer (Lentidão) / Regeneração de Vida / Reviver",
-          "items": [45,77,15]
-        },
-        {
-          "name": "Debuffer (Lentidão) / Resistência Mágica / Esquiva Dano Crítico",
-          "items": [45,66,25]
+          "name": "Regeneração de Vida / Regeneração de Vida / Reviver",
+          "items": [77,77,15]
+        },
+        {
+          "name": "Debuffer (Lentidão) / Resistência Mágica / Regeneração de Vida",
+          "items": [45,66,77]
         },
         {
           "name": "Dano em área / Regeneração de Vida / Regeneração de Vida",
@@ -14626,12 +14641,12 @@
         <f t="shared" si="6"/>
         <v>"bestSets": [
         {
-          "name": "Debuffer (Lentidão) / Regeneração de Vida / Reviver",
-          "items": [45,77,15]
-        },
-        {
-          "name": "Debuffer (Lentidão) / Resistência Mágica / Esquiva Dano Crítico",
-          "items": [45,66,25]
+          "name": "Regeneração de Vida / Regeneração de Vida / Reviver",
+          "items": [77,77,15]
+        },
+        {
+          "name": "Debuffer (Lentidão) / Resistência Mágica / Regeneração de Vida",
+          "items": [45,66,77]
         },
         {
           "name": "Dano em área / Regeneração de Vida / Regeneração de Vida",
@@ -14824,14 +14839,14 @@
       </c>
       <c r="F56" s="13" t="str">
         <f>CONCATENATE("""",VLOOKUP($H56,ITEMS!$A$2:$E$57,5,0)," / ",VLOOKUP($I56,ITEMS!$A$2:$E$57,5,0)," / ",VLOOKUP($J56,ITEMS!$A$2:$E$57,5,0),"""")</f>
-        <v>"Debuffer (Slow) / HP Regeneration / HP Regeneration"</v>
+        <v>"Revive / HP Regeneration / HP Regeneration"</v>
       </c>
       <c r="G56" s="13" t="str">
         <f>CONCATENATE("""",VLOOKUP($H56,ITEMS!$A$2:$F$57,6,0)," / ",VLOOKUP($I56,ITEMS!$A$2:$F$57,6,0)," / ",VLOOKUP($J56,ITEMS!$A$2:$F$57,6,0),"""")</f>
-        <v>"Debuffer (Lentidão) / Regeneração de Vida / Regeneração de Vida"</v>
+        <v>"Reviver / Regeneração de Vida / Regeneração de Vida"</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="I56" s="25" t="s">
         <v>43</v>
@@ -14875,7 +14890,7 @@
       </c>
       <c r="U56" s="27">
         <f>VLOOKUP(H56,ITEMS!$A$2:$C$57,3,0)</f>
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="V56" s="27">
         <f>VLOOKUP(I56,ITEMS!$A$2:$C$57,3,0)</f>
@@ -14887,7 +14902,7 @@
       </c>
       <c r="X56" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>[45,77,77]</v>
+        <v>[15,77,77]</v>
       </c>
       <c r="Y56" s="27">
         <f>VLOOKUP(M56,ITEMS!$A$2:$C$57,3,0)</f>
@@ -14925,8 +14940,8 @@
         <f t="shared" si="3"/>
         <v>"bestSets": [
         {
-          "name": "Debuffer (Slow) / HP Regeneration / HP Regeneration",
-          "items": [45,77,77]
+          "name": "Revive / HP Regeneration / HP Regeneration",
+          "items": [15,77,77]
         },
         {
           "name": "Debuffer (Slow) / HP Regeneration / Revive",
@@ -14942,8 +14957,8 @@
         <f t="shared" si="4"/>
         <v>"bestSets": [
         {
-          "name": "Debuffer (Slow) / HP Regeneration / HP Regeneration",
-          "items": [45,77,77]
+          "name": "Revive / HP Regeneration / HP Regeneration",
+          "items": [15,77,77]
         },
         {
           "name": "Debuffer (Slow) / HP Regeneration / Revive",
@@ -14959,8 +14974,8 @@
         <f t="shared" si="5"/>
         <v>"bestSets": [
         {
-          "name": "Debuffer (Lentidão) / Regeneração de Vida / Regeneração de Vida",
-          "items": [45,77,77]
+          "name": "Reviver / Regeneração de Vida / Regeneração de Vida",
+          "items": [15,77,77]
         },
         {
           "name": "Debuffer (Lentidão) / Regeneração de Vida / Reviver",
@@ -14976,8 +14991,8 @@
         <f t="shared" si="6"/>
         <v>"bestSets": [
         {
-          "name": "Debuffer (Lentidão) / Regeneração de Vida / Regeneração de Vida",
-          "items": [45,77,77]
+          "name": "Reviver / Regeneração de Vida / Regeneração de Vida",
+          "items": [15,77,77]
         },
         {
           "name": "Debuffer (Lentidão) / Regeneração de Vida / Reviver",
@@ -15359,19 +15374,19 @@
           <x14:formula1>
             <xm:f>ITEMS!$A$2:$A$57</xm:f>
           </x14:formula1>
-          <xm:sqref>R2:T4 M7:O7 R7:T8 R10:R11 T10:T11 T13:T14 S10:S14 T16:T22 S16:S26 T24:T26 M34:O34 S28:T37 R13:R37 T40:T46 R39:S48 R50:S50 T48:T50 M55:O55 R53:T58</xm:sqref>
+          <xm:sqref>R2:T4 M7:O7 R7:T8 R10:R11 T10:T11 T13:T14 S10:S14 T16:T22 S16:S26 T24:T26 M34:O34 S28:T37 R13:R37 T40:T46 R53:T58 R50:S50 T48:T50 M55:O55 R39:S48 H54:I54</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>ITEMS!$A$2:$A$57</xm:f>
           </x14:formula1>
-          <xm:sqref>R5:T5 M4:O4 M6:O6 M8:O9 T12 O11:O12 S15:T15 O14:O15 O17:O20 T27 N11:N20 T23 N22:O26 M11:M29 N28:N29 O28:O32 M31:N33 T39 R38:T38 M35:O40 M42:N44 O42:O45 T47 M47:O54 M57:O57</xm:sqref>
+          <xm:sqref>R5:T5 M4:O4 M6:O6 M8:O9 T12 O11:O12 S15:T15 O14:O15 O17:O20 T27 N11:N20 T23 N22:O26 M11:M29 N28:N29 O28:O32 M31:N33 T39 R38:T38 M35:O40 O42:O45 M57:O57 T47 M47:O54 M42:N44</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>ITEMS!$A$2:$A$57</xm:f>
           </x14:formula1>
-          <xm:sqref>M30:N30 M2:O3 M5:O5 R6:T6 R9:T9 M10:O10 R12 O13 O16 N21:O21 N27:O27 S27 R51:T52 O33 M41:O41 M45:N45 M46:O46 R49:S49 H2:J58 M56:O56 M58:O58</xm:sqref>
+          <xm:sqref>M30:N30 M2:O3 M5:O5 R6:T6 R9:T9 M10:O10 R12 O13 O16 N21:O21 N27:O27 S27 M58:O58 O33 M41:O41 M45:N45 M46:O46 R49:S49 R51:T52 M56:O56 J2:J58 H2:I53 H55:I58</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/bin/data/best-sets_TFT.xlsx
+++ b/bin/data/best-sets_TFT.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryuok\Documents\GitHub\arenatactics\bin\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B99EFE-A67D-4F70-B4A2-1114B4AF5189}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14910" windowHeight="8085"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ITEM SETS" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ITEM SETS'!$A$1:$C$46</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ITEMS!$A$1:$D$57</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1120,7 +1121,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4268,7 +4269,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="Imagem 49" descr="SparringGloves"/>
+        <xdr:cNvPr id="50" name="Imagem 49" descr="SparringGloves">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4323,7 +4330,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="Imagem 50" descr="RepeatingCrossbow"/>
+        <xdr:cNvPr id="51" name="Imagem 50" descr="RepeatingCrossbow">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4378,7 +4391,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="Imagem 51" descr="JeweledGauntlet"/>
+        <xdr:cNvPr id="52" name="Imagem 51" descr="JeweledGauntlet">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4433,7 +4452,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="Imagem 52" descr="HandofJustice"/>
+        <xdr:cNvPr id="53" name="Imagem 52" descr="HandofJustice">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4488,7 +4513,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="Imagem 53" descr="IceborneGauntlet"/>
+        <xdr:cNvPr id="54" name="Imagem 53" descr="IceborneGauntlet">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4543,7 +4574,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="Imagem 54" descr="Quicksilver"/>
+        <xdr:cNvPr id="55" name="Imagem 54" descr="Quicksilver">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4598,7 +4635,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="Imagem 55" descr="TrapClaw"/>
+        <xdr:cNvPr id="56" name="Imagem 55" descr="TrapClaw">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4653,7 +4696,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="Imagem 56" descr="ThiefsGloves"/>
+        <xdr:cNvPr id="57" name="Imagem 56" descr="ThiefsGloves">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4708,7 +4757,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="Imagem 57" descr="Mittens"/>
+        <xdr:cNvPr id="58" name="Imagem 57" descr="Mittens">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4763,7 +4818,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="Imagem 58" descr="Deathblade"/>
+        <xdr:cNvPr id="59" name="Imagem 58" descr="Deathblade">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4818,7 +4879,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="Imagem 59" descr="GiantSlayer"/>
+        <xdr:cNvPr id="60" name="Imagem 59" descr="GiantSlayer">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5123,13 +5190,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F27" sqref="F27"/>
-      <selection pane="bottomLeft" activeCell="A58" sqref="A58"/>
+      <selection pane="bottomLeft" activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12549,20 +12616,20 @@
       </c>
       <c r="F43" s="13" t="str">
         <f>CONCATENATE("""",VLOOKUP($H43,ITEMS!$A$2:$E$57,5,0)," / ",VLOOKUP($I43,ITEMS!$A$2:$E$57,5,0)," / ",VLOOKUP($J43,ITEMS!$A$2:$E$57,5,0),"""")</f>
-        <v>"HP Regeneration / Revive / Debuffer (Slow)"</v>
+        <v>"HP Regeneration / Debuffer (Slow) / Revive"</v>
       </c>
       <c r="G43" s="13" t="str">
         <f>CONCATENATE("""",VLOOKUP($H43,ITEMS!$A$2:$F$57,6,0)," / ",VLOOKUP($I43,ITEMS!$A$2:$F$57,6,0)," / ",VLOOKUP($J43,ITEMS!$A$2:$F$57,6,0),"""")</f>
-        <v>"Regeneração de Vida / Reviver / Debuffer (Lentidão)"</v>
+        <v>"Regeneração de Vida / Debuffer (Lentidão) / Reviver"</v>
       </c>
       <c r="H43" s="25" t="s">
         <v>43</v>
       </c>
       <c r="I43" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="J43" s="25" t="s">
         <v>14</v>
-      </c>
-      <c r="J43" s="25" t="s">
-        <v>32</v>
       </c>
       <c r="K43" s="13" t="str">
         <f>CONCATENATE("""",VLOOKUP($M43,ITEMS!$A$2:$E$57,5,0)," / ",VLOOKUP($N43,ITEMS!$A$2:$E$57,5,0)," / ",VLOOKUP($O43,ITEMS!$A$2:$E$57,5,0),"""")</f>
@@ -12604,15 +12671,15 @@
       </c>
       <c r="V43" s="27">
         <f>VLOOKUP(I43,ITEMS!$A$2:$C$57,3,0)</f>
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="W43" s="27">
         <f>VLOOKUP(J43,ITEMS!$A$2:$C$57,3,0)</f>
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="X43" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>[77,15,45]</v>
+        <v>[77,45,15]</v>
       </c>
       <c r="Y43" s="27">
         <f>VLOOKUP(M43,ITEMS!$A$2:$C$57,3,0)</f>
@@ -12650,8 +12717,8 @@
         <f t="shared" si="3"/>
         <v>"bestSets": [
         {
-          "name": "HP Regeneration / Revive / Debuffer (Slow)",
-          "items": [77,15,45]
+          "name": "HP Regeneration / Debuffer (Slow) / Revive",
+          "items": [77,45,15]
         },
         {
           "name": "HP Regeneration / Splash Damage / HP Regeneration",
@@ -12667,8 +12734,8 @@
         <f t="shared" si="4"/>
         <v>"bestSets": [
         {
-          "name": "HP Regeneration / Revive / Debuffer (Slow)",
-          "items": [77,15,45]
+          "name": "HP Regeneration / Debuffer (Slow) / Revive",
+          "items": [77,45,15]
         },
         {
           "name": "HP Regeneration / Splash Damage / HP Regeneration",
@@ -12684,8 +12751,8 @@
         <f t="shared" si="5"/>
         <v>"bestSets": [
         {
-          "name": "Regeneração de Vida / Reviver / Debuffer (Lentidão)",
-          "items": [77,15,45]
+          "name": "Regeneração de Vida / Debuffer (Lentidão) / Reviver",
+          "items": [77,45,15]
         },
         {
           "name": "Regeneração de Vida / Dano em área / Regeneração de Vida",
@@ -12701,8 +12768,8 @@
         <f t="shared" si="6"/>
         <v>"bestSets": [
         {
-          "name": "Regeneração de Vida / Reviver / Debuffer (Lentidão)",
-          "items": [77,15,45]
+          "name": "Regeneração de Vida / Debuffer (Lentidão) / Reviver",
+          "items": [77,45,15]
         },
         {
           "name": "Regeneração de Vida / Dano em área / Regeneração de Vida",
@@ -15369,24 +15436,12 @@
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>ITEMS!$A$2:$A$57</xm:f>
           </x14:formula1>
-          <xm:sqref>R2:T4 M7:O7 R7:T8 R10:R11 T10:T11 T13:T14 S10:S14 T16:T22 S16:S26 T24:T26 M34:O34 S28:T37 R13:R37 T40:T46 R53:T58 R50:S50 T48:T50 M55:O55 R39:S48 H54:I54</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>ITEMS!$A$2:$A$57</xm:f>
-          </x14:formula1>
-          <xm:sqref>R5:T5 M4:O4 M6:O6 M8:O9 T12 O11:O12 S15:T15 O14:O15 O17:O20 T27 N11:N20 T23 N22:O26 M11:M29 N28:N29 O28:O32 M31:N33 T39 R38:T38 M35:O40 O42:O45 M57:O57 T47 M47:O54 M42:N44</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>ITEMS!$A$2:$A$57</xm:f>
-          </x14:formula1>
-          <xm:sqref>M30:N30 M2:O3 M5:O5 R6:T6 R9:T9 M10:O10 R12 O13 O16 N21:O21 N27:O27 S27 M58:O58 O33 M41:O41 M45:N45 M46:O46 R49:S49 R51:T52 M56:O56 J2:J58 H2:I53 H55:I58</xm:sqref>
+          <xm:sqref>R2:T58 M34:O58 M2:O10 N11:O27 M11:M29 N28:N29 O28:O33 M30:N33 H2:J58</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -15395,7 +15450,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:I33"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
@@ -15647,7 +15702,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P58"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -16684,8 +16739,8 @@
       <c r="F58" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D57"/>
-  <sortState ref="A2:F57">
+  <autoFilter ref="A1:D57" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F57">
     <sortCondition ref="A2:A57"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -16695,7 +16750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">

--- a/bin/data/best-sets_TFT.xlsx
+++ b/bin/data/best-sets_TFT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryuok\Documents\GitHub\arenatactics\bin\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B99EFE-A67D-4F70-B4A2-1114B4AF5189}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBC279D-4F72-4898-81F9-48A38B475D1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5194,9 +5194,9 @@
   <dimension ref="A1:AL59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F27" sqref="F27"/>
-      <selection pane="bottomLeft" activeCell="J44" sqref="J44"/>
+      <selection pane="bottomLeft" activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12987,20 +12987,20 @@
       </c>
       <c r="K45" s="13" t="str">
         <f>CONCATENATE("""",VLOOKUP($M45,ITEMS!$A$2:$E$57,5,0)," / ",VLOOKUP($N45,ITEMS!$A$2:$E$57,5,0)," / ",VLOOKUP($O45,ITEMS!$A$2:$E$57,5,0),"""")</f>
-        <v>"Mana Generation / Revive / Debuffer (Slow)"</v>
+        <v>"Mana Generation / Debuffer (Slow) / Revive"</v>
       </c>
       <c r="L45" s="13" t="str">
         <f>CONCATENATE("""",VLOOKUP($M45,ITEMS!$A$2:$F$57,6,0)," / ",VLOOKUP($N45,ITEMS!$A$2:$F$57,6,0)," / ",VLOOKUP($O45,ITEMS!$A$2:$F$57,6,0),"""")</f>
-        <v>"Geração de Mana / Reviver / Debuffer (Lentidão)"</v>
+        <v>"Geração de Mana / Debuffer (Lentidão) / Reviver"</v>
       </c>
       <c r="M45" s="25" t="s">
         <v>13</v>
       </c>
       <c r="N45" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="O45" s="25" t="s">
         <v>14</v>
-      </c>
-      <c r="O45" s="25" t="s">
-        <v>32</v>
       </c>
       <c r="P45" s="13" t="str">
         <f>CONCATENATE("""",VLOOKUP($R45,ITEMS!$A$2:$E$57,5,0)," / ",VLOOKUP($S45,ITEMS!$A$2:$E$57,5,0)," / ",VLOOKUP($T45,ITEMS!$A$2:$E$57,5,0),"""")</f>
@@ -13041,15 +13041,15 @@
       </c>
       <c r="Z45" s="27">
         <f>VLOOKUP(N45,ITEMS!$A$2:$C$57,3,0)</f>
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="AA45" s="27">
         <f>VLOOKUP(O45,ITEMS!$A$2:$C$57,3,0)</f>
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="AB45" s="27" t="str">
         <f t="shared" si="1"/>
-        <v>[14,15,45]</v>
+        <v>[14,45,15]</v>
       </c>
       <c r="AC45" s="27">
         <f>VLOOKUP(R45,ITEMS!$A$2:$C$57,3,0)</f>
@@ -13075,8 +13075,8 @@
           "items": [14,15,37]
         },
         {
-          "name": "Mana Generation / Revive / Debuffer (Slow)",
-          "items": [14,15,45]
+          "name": "Mana Generation / Debuffer (Slow) / Revive",
+          "items": [14,45,15]
         },
         {
           "name": "Mana Generation / HP Regeneration / Magic Resistance",
@@ -13092,8 +13092,8 @@
           "items": [14,15,37]
         },
         {
-          "name": "Mana Generation / Revive / Debuffer (Slow)",
-          "items": [14,15,45]
+          "name": "Mana Generation / Debuffer (Slow) / Revive",
+          "items": [14,45,15]
         },
         {
           "name": "Mana Generation / HP Regeneration / Magic Resistance",
@@ -13109,8 +13109,8 @@
           "items": [14,15,37]
         },
         {
-          "name": "Geração de Mana / Reviver / Debuffer (Lentidão)",
-          "items": [14,15,45]
+          "name": "Geração de Mana / Debuffer (Lentidão) / Reviver",
+          "items": [14,45,15]
         },
         {
           "name": "Geração de Mana / Regeneração de Vida / Resistência Mágica",
@@ -13126,8 +13126,8 @@
           "items": [14,15,37]
         },
         {
-          "name": "Geração de Mana / Reviver / Debuffer (Lentidão)",
-          "items": [14,15,45]
+          "name": "Geração de Mana / Debuffer (Lentidão) / Reviver",
+          "items": [14,45,15]
         },
         {
           "name": "Geração de Mana / Regeneração de Vida / Resistência Mágica",
@@ -15441,7 +15441,7 @@
           <x14:formula1>
             <xm:f>ITEMS!$A$2:$A$57</xm:f>
           </x14:formula1>
-          <xm:sqref>R2:T58 M34:O58 M2:O10 N11:O27 M11:M29 N28:N29 O28:O33 M30:N33 H2:J58</xm:sqref>
+          <xm:sqref>R2:T58 H2:J58 M2:O10 N11:O27 M11:M29 N28:N29 O28:O33 M30:N33 M34:O58</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
